--- a/Team-Data/2008-09/3-8-2008-09.xlsx
+++ b/Team-Data/2008-09/3-8-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -774,19 +841,19 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO2" t="n">
         <v>18</v>
       </c>
       <c r="AP2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS2" t="n">
         <v>21</v>
@@ -807,7 +874,7 @@
         <v>14</v>
       </c>
       <c r="AY2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -851,85 +918,85 @@
         <v>63</v>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>0.762</v>
+        <v>0.778</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J3" t="n">
         <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.487</v>
+        <v>0.488</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.393</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="P3" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.774</v>
+        <v>0.772</v>
       </c>
       <c r="R3" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S3" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T3" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
       </c>
       <c r="W3" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
         <v>4.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -953,34 +1020,34 @@
         <v>17</v>
       </c>
       <c r="AM3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO3" t="n">
         <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW3" t="n">
         <v>7</v>
@@ -989,13 +1056,13 @@
         <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -1108,10 +1175,10 @@
         <v>-1.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>18</v>
@@ -1135,7 +1202,7 @@
         <v>22</v>
       </c>
       <c r="AM4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN4" t="n">
         <v>12</v>
@@ -1150,10 +1217,10 @@
         <v>26</v>
       </c>
       <c r="AR4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT4" t="n">
         <v>26</v>
@@ -1183,7 +1250,7 @@
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="n">
         <v>34</v>
       </c>
       <c r="G5" t="n">
-        <v>0.452</v>
+        <v>0.46</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
@@ -1230,10 +1297,10 @@
         <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>83.5</v>
+        <v>83.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L5" t="n">
         <v>5.8</v>
@@ -1242,55 +1309,55 @@
         <v>15.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.376</v>
+        <v>0.377</v>
       </c>
       <c r="O5" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
       <c r="R5" t="n">
         <v>12.1</v>
       </c>
       <c r="S5" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
         <v>42.6</v>
       </c>
       <c r="U5" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V5" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
         <v>21.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.3</v>
+        <v>-1.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1299,10 +1366,10 @@
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -1311,7 +1378,7 @@
         <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>24</v>
@@ -1320,7 +1387,7 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO5" t="n">
         <v>11</v>
@@ -1341,13 +1408,13 @@
         <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
         <v>4</v>
@@ -1359,13 +1426,13 @@
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB5" t="n">
         <v>11</v>
       </c>
       <c r="BC5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -1394,49 +1461,49 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" t="n">
         <v>49</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.803</v>
+        <v>0.79</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="J6" t="n">
-        <v>78</v>
+        <v>77.8</v>
       </c>
       <c r="K6" t="n">
         <v>0.47</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.395</v>
+        <v>0.393</v>
       </c>
       <c r="O6" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P6" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
         <v>0.754</v>
       </c>
       <c r="R6" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S6" t="n">
         <v>30.9</v>
@@ -1448,46 +1515,46 @@
         <v>20</v>
       </c>
       <c r="V6" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
         <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ6" t="n">
         <v>26</v>
@@ -1511,10 +1578,10 @@
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1526,7 +1593,7 @@
         <v>25</v>
       </c>
       <c r="AV6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
@@ -1535,7 +1602,7 @@
         <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ6" t="n">
         <v>6</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1678,13 +1745,13 @@
         <v>9</v>
       </c>
       <c r="AL7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM7" t="n">
         <v>11</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO7" t="n">
         <v>23</v>
@@ -1717,7 +1784,7 @@
         <v>7</v>
       </c>
       <c r="AY7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
         <v>3</v>
@@ -1729,7 +1796,7 @@
         <v>10</v>
       </c>
       <c r="BC7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" t="n">
         <v>40</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" t="n">
-        <v>0.625</v>
+        <v>0.635</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
@@ -1776,49 +1843,49 @@
         <v>36.7</v>
       </c>
       <c r="J8" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="K8" t="n">
         <v>0.467</v>
       </c>
       <c r="L8" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M8" t="n">
         <v>17.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.361</v>
+        <v>0.363</v>
       </c>
       <c r="O8" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="P8" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="R8" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T8" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U8" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V8" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X8" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y8" t="n">
         <v>5.4</v>
@@ -1827,31 +1894,31 @@
         <v>22.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AD8" t="n">
         <v>3</v>
       </c>
       <c r="AE8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF8" t="n">
         <v>7</v>
       </c>
-      <c r="AF8" t="n">
-        <v>10</v>
-      </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
         <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ8" t="n">
         <v>24</v>
@@ -1866,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,31 +1942,31 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR8" t="n">
         <v>16</v>
       </c>
       <c r="AS8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV8" t="n">
         <v>26</v>
       </c>
       <c r="AW8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX8" t="n">
         <v>3</v>
       </c>
       <c r="AY8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ8" t="n">
         <v>26</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2069,7 +2136,7 @@
         <v>20</v>
       </c>
       <c r="AU9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2224,22 +2291,22 @@
         <v>12</v>
       </c>
       <c r="AL10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM10" t="n">
         <v>17</v>
       </c>
       <c r="AN10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP10" t="n">
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR10" t="n">
         <v>10</v>
@@ -2275,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" t="n">
         <v>23</v>
       </c>
       <c r="G11" t="n">
-        <v>0.641</v>
+        <v>0.635</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
@@ -2325,34 +2392,34 @@
         <v>79.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L11" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M11" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.377</v>
+        <v>0.378</v>
       </c>
       <c r="O11" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="P11" t="n">
         <v>24.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="R11" t="n">
         <v>10.5</v>
       </c>
       <c r="S11" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T11" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U11" t="n">
         <v>20.5</v>
@@ -2361,7 +2428,7 @@
         <v>14.2</v>
       </c>
       <c r="W11" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X11" t="n">
         <v>4</v>
@@ -2370,16 +2437,16 @@
         <v>5.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA11" t="n">
         <v>21</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AD11" t="n">
         <v>3</v>
@@ -2388,10 +2455,10 @@
         <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
@@ -2430,13 +2497,13 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
         <v>16</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
@@ -2448,16 +2515,16 @@
         <v>24</v>
       </c>
       <c r="AZ11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA11" t="n">
         <v>14</v>
       </c>
       <c r="BB11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -2564,13 +2631,13 @@
         <v>-1.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG12" t="n">
         <v>21</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
         <v>4</v>
@@ -2618,10 +2685,10 @@
         <v>5</v>
       </c>
       <c r="AV12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2785,22 +2852,22 @@
         <v>24</v>
       </c>
       <c r="AQ13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR13" t="n">
         <v>12</v>
       </c>
       <c r="AS13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
         <v>21</v>
       </c>
       <c r="AU13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW13" t="n">
         <v>23</v>
@@ -2812,7 +2879,7 @@
         <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" t="n">
         <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.803</v>
+        <v>0.806</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,7 +2935,7 @@
         <v>40.7</v>
       </c>
       <c r="J14" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K14" t="n">
         <v>0.476</v>
@@ -2877,28 +2944,28 @@
         <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.362</v>
+        <v>0.365</v>
       </c>
       <c r="O14" t="n">
         <v>20.5</v>
       </c>
       <c r="P14" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="Q14" t="n">
         <v>0.77</v>
       </c>
       <c r="R14" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S14" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T14" t="n">
-        <v>44.4</v>
+        <v>44.5</v>
       </c>
       <c r="U14" t="n">
         <v>23.7</v>
@@ -2907,28 +2974,28 @@
         <v>13.5</v>
       </c>
       <c r="W14" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y14" t="n">
         <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.9</v>
+        <v>108.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
@@ -2940,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
@@ -2952,16 +3019,16 @@
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>6</v>
@@ -2973,7 +3040,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2985,7 +3052,7 @@
         <v>11</v>
       </c>
       <c r="AW14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX14" t="n">
         <v>8</v>
@@ -2994,10 +3061,10 @@
         <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" t="n">
-        <v>0.258</v>
+        <v>0.262</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
@@ -3050,19 +3117,19 @@
         <v>35</v>
       </c>
       <c r="J15" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="L15" t="n">
         <v>4.6</v>
       </c>
       <c r="M15" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.34</v>
+        <v>0.339</v>
       </c>
       <c r="O15" t="n">
         <v>19.1</v>
@@ -3086,7 +3153,7 @@
         <v>17.1</v>
       </c>
       <c r="V15" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W15" t="n">
         <v>7.5</v>
@@ -3104,22 +3171,22 @@
         <v>21.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="AC15" t="n">
         <v>-6</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF15" t="n">
         <v>26</v>
       </c>
       <c r="AG15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH15" t="n">
         <v>9</v>
@@ -3152,13 +3219,13 @@
         <v>24</v>
       </c>
       <c r="AR15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS15" t="n">
         <v>28</v>
       </c>
       <c r="AT15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -3292,19 +3359,19 @@
         <v>-0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
         <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
@@ -3313,7 +3380,7 @@
         <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
         <v>11</v>
@@ -3334,7 +3401,7 @@
         <v>20</v>
       </c>
       <c r="AR16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS16" t="n">
         <v>23</v>
@@ -3364,7 +3431,7 @@
         <v>28</v>
       </c>
       <c r="BB16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E17" t="n">
         <v>30</v>
       </c>
       <c r="F17" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G17" t="n">
-        <v>0.462</v>
+        <v>0.455</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,7 +3481,7 @@
         <v>36.7</v>
       </c>
       <c r="J17" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K17" t="n">
         <v>0.448</v>
@@ -3426,13 +3493,13 @@
         <v>16.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O17" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="P17" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="Q17" t="n">
         <v>0.783</v>
@@ -3441,10 +3508,10 @@
         <v>12.2</v>
       </c>
       <c r="S17" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U17" t="n">
         <v>21.6</v>
@@ -3453,7 +3520,7 @@
         <v>14.2</v>
       </c>
       <c r="W17" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X17" t="n">
         <v>3.8</v>
@@ -3462,16 +3529,16 @@
         <v>4.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3480,10 +3547,10 @@
         <v>16</v>
       </c>
       <c r="AF17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG17" t="n">
         <v>18</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>18</v>
@@ -3492,7 +3559,7 @@
         <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK17" t="n">
         <v>24</v>
@@ -3501,34 +3568,34 @@
         <v>21</v>
       </c>
       <c r="AM17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
         <v>7</v>
       </c>
       <c r="AP17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR17" t="n">
         <v>6</v>
       </c>
       <c r="AS17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU17" t="n">
         <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
         <v>13</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3668,7 +3735,7 @@
         <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>12</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" t="n">
         <v>35</v>
       </c>
       <c r="G19" t="n">
-        <v>0.444</v>
+        <v>0.435</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
       </c>
       <c r="I19" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J19" t="n">
         <v>80.2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L19" t="n">
         <v>7.9</v>
@@ -3790,7 +3857,7 @@
         <v>21</v>
       </c>
       <c r="N19" t="n">
-        <v>0.377</v>
+        <v>0.376</v>
       </c>
       <c r="O19" t="n">
         <v>19.3</v>
@@ -3799,55 +3866,55 @@
         <v>24.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.785</v>
+        <v>0.786</v>
       </c>
       <c r="R19" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S19" t="n">
         <v>29.4</v>
       </c>
       <c r="T19" t="n">
-        <v>40</v>
+        <v>40.2</v>
       </c>
       <c r="U19" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V19" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W19" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.2</v>
+        <v>-2.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="n">
         <v>18</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
         <v>7</v>
@@ -3868,7 +3935,7 @@
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO19" t="n">
         <v>14</v>
@@ -3880,7 +3947,7 @@
         <v>9</v>
       </c>
       <c r="AR19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AS19" t="n">
         <v>20</v>
@@ -3895,7 +3962,7 @@
         <v>9</v>
       </c>
       <c r="AW19" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AX19" t="n">
         <v>20</v>
@@ -3907,7 +3974,7 @@
         <v>25</v>
       </c>
       <c r="BA19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB19" t="n">
         <v>18</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -4020,19 +4087,19 @@
         <v>3</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF20" t="n">
         <v>6</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI20" t="n">
         <v>28</v>
@@ -4053,7 +4120,7 @@
         <v>6</v>
       </c>
       <c r="AO20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
         <v>22</v>
@@ -4092,7 +4159,7 @@
         <v>14</v>
       </c>
       <c r="BB20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC20" t="n">
         <v>9</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" t="n">
         <v>25</v>
       </c>
       <c r="F21" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" t="n">
-        <v>0.403</v>
+        <v>0.41</v>
       </c>
       <c r="H21" t="n">
         <v>48.2</v>
@@ -4142,10 +4209,10 @@
         <v>38.6</v>
       </c>
       <c r="J21" t="n">
-        <v>86.59999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L21" t="n">
         <v>10.5</v>
@@ -4154,28 +4221,28 @@
         <v>28.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
       <c r="O21" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="P21" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.792</v>
+        <v>0.794</v>
       </c>
       <c r="R21" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S21" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T21" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U21" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V21" t="n">
         <v>14.5</v>
@@ -4184,31 +4251,31 @@
         <v>7.1</v>
       </c>
       <c r="X21" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB21" t="n">
         <v>106</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
         <v>22</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO21" t="n">
         <v>24</v>
@@ -4250,7 +4317,7 @@
         <v>8</v>
       </c>
       <c r="AT21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU21" t="n">
         <v>11</v>
@@ -4268,7 +4335,7 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" t="n">
         <v>46</v>
       </c>
       <c r="G22" t="n">
-        <v>0.27</v>
+        <v>0.258</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,10 +4391,10 @@
         <v>36.8</v>
       </c>
       <c r="J22" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L22" t="n">
         <v>4.2</v>
@@ -4336,13 +4403,13 @@
         <v>11.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O22" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="P22" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="Q22" t="n">
         <v>0.78</v>
@@ -4363,13 +4430,13 @@
         <v>16.5</v>
       </c>
       <c r="W22" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X22" t="n">
         <v>4.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z22" t="n">
         <v>20.7</v>
@@ -4378,31 +4445,31 @@
         <v>20.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="AC22" t="n">
-        <v>-5.5</v>
+        <v>-5.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
       </c>
       <c r="AF22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK22" t="n">
         <v>23</v>
@@ -4414,7 +4481,7 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO22" t="n">
         <v>8</v>
@@ -4441,7 +4508,7 @@
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX22" t="n">
         <v>22</v>
@@ -4450,7 +4517,7 @@
         <v>18</v>
       </c>
       <c r="AZ22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" t="n">
         <v>16</v>
       </c>
       <c r="G23" t="n">
-        <v>0.742</v>
+        <v>0.738</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4521,22 +4588,22 @@
         <v>0.391</v>
       </c>
       <c r="O23" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="P23" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="Q23" t="n">
         <v>0.725</v>
       </c>
       <c r="R23" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S23" t="n">
         <v>33</v>
       </c>
       <c r="T23" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U23" t="n">
         <v>19.2</v>
@@ -4548,25 +4615,25 @@
         <v>7</v>
       </c>
       <c r="X23" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y23" t="n">
         <v>3.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA23" t="n">
         <v>22.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.1</v>
+        <v>102.3</v>
       </c>
       <c r="AC23" t="n">
         <v>6.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4581,7 +4648,7 @@
         <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ23" t="n">
         <v>25</v>
@@ -4614,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU23" t="n">
         <v>29</v>
@@ -4626,7 +4693,7 @@
         <v>20</v>
       </c>
       <c r="AX23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -4670,61 +4737,61 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" t="n">
         <v>30</v>
       </c>
       <c r="F24" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" t="n">
-        <v>0.492</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="J24" t="n">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="K24" t="n">
         <v>0.455</v>
       </c>
       <c r="L24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="M24" t="n">
         <v>13.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.315</v>
+        <v>0.316</v>
       </c>
       <c r="O24" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="P24" t="n">
         <v>26.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.74</v>
+        <v>0.742</v>
       </c>
       <c r="R24" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S24" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T24" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U24" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="V24" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W24" t="n">
         <v>8.1</v>
@@ -4739,22 +4806,22 @@
         <v>20.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>96.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AE24" t="n">
         <v>16</v>
       </c>
       <c r="AF24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG24" t="n">
         <v>16</v>
@@ -4763,13 +4830,13 @@
         <v>26</v>
       </c>
       <c r="AI24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ24" t="n">
         <v>14</v>
       </c>
       <c r="AK24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="n">
         <v>30</v>
@@ -4787,7 +4854,7 @@
         <v>7</v>
       </c>
       <c r="AQ24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR24" t="n">
         <v>2</v>
@@ -4796,10 +4863,10 @@
         <v>19</v>
       </c>
       <c r="AT24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU24" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV24" t="n">
         <v>18</v>
@@ -4808,7 +4875,7 @@
         <v>4</v>
       </c>
       <c r="AX24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY24" t="n">
         <v>17</v>
@@ -4820,7 +4887,7 @@
         <v>10</v>
       </c>
       <c r="BB24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" t="n">
         <v>34</v>
       </c>
       <c r="F25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" t="n">
-        <v>0.54</v>
+        <v>0.548</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4870,25 +4937,25 @@
         <v>40.1</v>
       </c>
       <c r="J25" t="n">
-        <v>80.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5</v>
+        <v>0.502</v>
       </c>
       <c r="L25" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M25" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.386</v>
+        <v>0.385</v>
       </c>
       <c r="O25" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="P25" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="Q25" t="n">
         <v>0.757</v>
@@ -4897,19 +4964,19 @@
         <v>10.2</v>
       </c>
       <c r="S25" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T25" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U25" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="V25" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="W25" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X25" t="n">
         <v>4.9</v>
@@ -4921,22 +4988,22 @@
         <v>20.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>107.3</v>
+        <v>107.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -4954,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM25" t="n">
         <v>19</v>
@@ -4963,7 +5030,7 @@
         <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AP25" t="n">
         <v>5</v>
@@ -4972,7 +5039,7 @@
         <v>21</v>
       </c>
       <c r="AR25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS25" t="n">
         <v>9</v>
@@ -4999,13 +5066,13 @@
         <v>17</v>
       </c>
       <c r="BA25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB25" t="n">
         <v>3</v>
       </c>
       <c r="BC25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E26" t="n">
         <v>39</v>
       </c>
       <c r="F26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G26" t="n">
-        <v>0.639</v>
+        <v>0.629</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J26" t="n">
-        <v>79.09999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M26" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N26" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O26" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="P26" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.764</v>
+        <v>0.762</v>
       </c>
       <c r="R26" t="n">
         <v>13</v>
@@ -5082,7 +5149,7 @@
         <v>28.2</v>
       </c>
       <c r="T26" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U26" t="n">
         <v>20.3</v>
@@ -5097,37 +5164,37 @@
         <v>4.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z26" t="n">
         <v>20.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG26" t="n">
         <v>9</v>
       </c>
-      <c r="AF26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>7</v>
-      </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ26" t="n">
         <v>21</v>
@@ -5139,19 +5206,19 @@
         <v>10</v>
       </c>
       <c r="AM26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN26" t="n">
         <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
         <v>18</v>
       </c>
       <c r="AQ26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,10 +5227,10 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
@@ -5178,16 +5245,16 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA26" t="n">
         <v>13</v>
       </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -5216,52 +5283,52 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" t="n">
         <v>49</v>
       </c>
       <c r="G27" t="n">
-        <v>0.222</v>
+        <v>0.21</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
       </c>
       <c r="I27" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J27" t="n">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="K27" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L27" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M27" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.364</v>
+        <v>0.361</v>
       </c>
       <c r="O27" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="P27" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.801</v>
+        <v>0.802</v>
       </c>
       <c r="R27" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S27" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T27" t="n">
         <v>38.7</v>
@@ -5270,7 +5337,7 @@
         <v>19.8</v>
       </c>
       <c r="V27" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W27" t="n">
         <v>7</v>
@@ -5288,25 +5355,25 @@
         <v>21.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.9</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AE27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF27" t="n">
         <v>29</v>
       </c>
       <c r="AG27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5315,22 +5382,22 @@
         <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM27" t="n">
         <v>14</v>
       </c>
       <c r="AN27" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ27" t="n">
         <v>6</v>
@@ -5339,7 +5406,7 @@
         <v>27</v>
       </c>
       <c r="AS27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT27" t="n">
         <v>30</v>
@@ -5348,13 +5415,13 @@
         <v>27</v>
       </c>
       <c r="AV27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW27" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
         <v>20</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -5398,19 +5465,19 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" t="n">
         <v>20</v>
       </c>
       <c r="G28" t="n">
-        <v>0.677</v>
+        <v>0.672</v>
       </c>
       <c r="H28" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I28" t="n">
         <v>37.1</v>
@@ -5425,25 +5492,25 @@
         <v>7.9</v>
       </c>
       <c r="M28" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.391</v>
+        <v>0.392</v>
       </c>
       <c r="O28" t="n">
         <v>15.4</v>
       </c>
       <c r="P28" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.77</v>
+        <v>0.772</v>
       </c>
       <c r="R28" t="n">
         <v>8.9</v>
       </c>
       <c r="S28" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T28" t="n">
         <v>41</v>
@@ -5452,7 +5519,7 @@
         <v>21.8</v>
       </c>
       <c r="V28" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="W28" t="n">
         <v>5.8</v>
@@ -5464,7 +5531,7 @@
         <v>4.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA28" t="n">
         <v>18.6</v>
@@ -5476,7 +5543,7 @@
         <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5506,7 +5573,7 @@
         <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5527,7 +5594,7 @@
         <v>18</v>
       </c>
       <c r="AU28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
@@ -5542,16 +5609,16 @@
         <v>9</v>
       </c>
       <c r="AZ28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA28" t="n">
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -5580,22 +5647,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" t="n">
         <v>23</v>
       </c>
       <c r="F29" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" t="n">
-        <v>0.359</v>
+        <v>0.365</v>
       </c>
       <c r="H29" t="n">
         <v>48.2</v>
       </c>
       <c r="I29" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J29" t="n">
         <v>79.8</v>
@@ -5607,25 +5674,25 @@
         <v>6</v>
       </c>
       <c r="M29" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.374</v>
+        <v>0.372</v>
       </c>
       <c r="O29" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P29" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q29" t="n">
         <v>0.83</v>
       </c>
       <c r="R29" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="S29" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T29" t="n">
         <v>39.3</v>
@@ -5634,25 +5701,25 @@
         <v>21.8</v>
       </c>
       <c r="V29" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="W29" t="n">
         <v>6.2</v>
       </c>
       <c r="X29" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y29" t="n">
         <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="AC29" t="n">
         <v>-3.7</v>
@@ -5673,7 +5740,7 @@
         <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="n">
         <v>19</v>
@@ -5685,13 +5752,13 @@
         <v>23</v>
       </c>
       <c r="AM29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP29" t="n">
         <v>27</v>
@@ -5703,16 +5770,16 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV29" t="n">
         <v>7</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>8</v>
       </c>
       <c r="AW29" t="n">
         <v>29</v>
@@ -5721,7 +5788,7 @@
         <v>13</v>
       </c>
       <c r="AY29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ29" t="n">
         <v>4</v>
@@ -5733,7 +5800,7 @@
         <v>21</v>
       </c>
       <c r="BC29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -5762,25 +5829,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" t="n">
         <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>0.635</v>
+        <v>0.629</v>
       </c>
       <c r="H30" t="n">
         <v>48.3</v>
       </c>
       <c r="I30" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J30" t="n">
-        <v>80</v>
+        <v>79.8</v>
       </c>
       <c r="K30" t="n">
         <v>0.479</v>
@@ -5789,10 +5856,10 @@
         <v>4.8</v>
       </c>
       <c r="M30" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="N30" t="n">
-        <v>0.345</v>
+        <v>0.347</v>
       </c>
       <c r="O30" t="n">
         <v>21.7</v>
@@ -5801,10 +5868,10 @@
         <v>28.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="R30" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S30" t="n">
         <v>29.3</v>
@@ -5816,7 +5883,7 @@
         <v>24.8</v>
       </c>
       <c r="V30" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W30" t="n">
         <v>8.800000000000001</v>
@@ -5825,7 +5892,7 @@
         <v>4.7</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z30" t="n">
         <v>22.2</v>
@@ -5834,25 +5901,25 @@
         <v>23.9</v>
       </c>
       <c r="AB30" t="n">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="AC30" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AE30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF30" t="n">
         <v>7</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>8</v>
       </c>
       <c r="AG30" t="n">
         <v>9</v>
       </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5879,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
@@ -5894,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW30" t="n">
         <v>1</v>
@@ -5915,7 +5982,7 @@
         <v>6</v>
       </c>
       <c r="BC30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6043,7 +6110,7 @@
         <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6061,7 +6128,7 @@
         <v>26</v>
       </c>
       <c r="AQ31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR31" t="n">
         <v>8</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-8-2008-09</t>
+          <t>2009-03-08</t>
         </is>
       </c>
     </row>
